--- a/运营数据/佛山.xlsx
+++ b/运营数据/佛山.xlsx
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy-MM-dd HH:mm"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11.0"/>
@@ -140,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -158,6 +160,57 @@
       <alignment vertical="center" horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyFill="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -285,6 +338,1902 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>GX20190819130943195</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="n">
+        <v>43696.54791666667</v>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>13246343673</t>
+        </is>
+      </c>
+      <c r="E3" s="11" t="inlineStr">
+        <is>
+          <t>13246343673</t>
+        </is>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>43696.645833333336</v>
+      </c>
+      <c r="G3" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H3" s="14" t="n">
+        <v>43698.645833333336</v>
+      </c>
+      <c r="I3" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="K3" s="17" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="L3" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="19" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>已下单</t>
+        </is>
+      </c>
+      <c r="P3" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q3" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>GX20190818173325045</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>43695.73125</v>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>15014662482</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>15014662482</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>43695.729166666664</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>43699.729166666664</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="K4" s="17" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="L4" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M4" s="23" t="inlineStr">
+        <is>
+          <t>粤E790CQ</t>
+        </is>
+      </c>
+      <c r="N4" s="19" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="O4" s="20" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P4" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q4" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>GX20190818103341659</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>43695.43958333333</v>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>黄国强</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>13434230647</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>43695.458333333336</v>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>43695.708333333336</v>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M5" s="23" t="inlineStr">
+        <is>
+          <t>粤E531CY</t>
+        </is>
+      </c>
+      <c r="N5" s="19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="O5" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P5" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q5" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>GX20190816144244237</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>43693.6125</v>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>聂振政</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>15986173109</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>43693.625</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>43696.625</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K6" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L6" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M6" s="23" t="inlineStr">
+        <is>
+          <t>粤EY210L</t>
+        </is>
+      </c>
+      <c r="N6" s="19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O6" s="20" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P6" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q6" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>GX20190816092116276</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>43693.38958333333</v>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>13929900755</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>13929900755</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>43693.479166666664</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>43696.479166666664</v>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K7" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L7" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M7" s="23" t="inlineStr">
+        <is>
+          <t>粤EU130B</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="O7" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q7" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815164142648</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>43692.69513888889</v>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>秦冬艺</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>18813353117</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>43692.65625</v>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>43694.65625</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J8" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L8" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M8" s="23" t="inlineStr">
+        <is>
+          <t>粤EY050T</t>
+        </is>
+      </c>
+      <c r="N8" s="19" t="n">
+        <v>399.0</v>
+      </c>
+      <c r="O8" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P8" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q8" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815163219534</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>深度试驾订单</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>43692.688888888886</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>秦冬艺</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>18813353117</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>43693.458333333336</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>43695.458333333336</v>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K9" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L9" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N9" s="19" t="n">
+        <v>708.0</v>
+      </c>
+      <c r="O9" s="20" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P9" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q9" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>GX20190815125523858</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>43692.538194444445</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>侯维杰</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>18902275775</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>43692.625</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>43695.625</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L10" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M10" s="23" t="inlineStr">
+        <is>
+          <t>粤EW253K</t>
+        </is>
+      </c>
+      <c r="N10" s="19" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P10" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q10" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>GX20190813120606390</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>43690.504166666666</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>13413165778</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>13413165778</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>43690.5625</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>43697.5625</v>
+      </c>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="J11" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K11" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L11" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M11" s="23" t="inlineStr">
+        <is>
+          <t>粤EM423K</t>
+        </is>
+      </c>
+      <c r="N11" s="19" t="n">
+        <v>642.0</v>
+      </c>
+      <c r="O11" s="20" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P11" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q11" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>GX20190812164236039</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>43689.69583333333</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>郑仕明</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>13553336663</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>43689.708333333336</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>43694.708333333336</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="J12" s="16" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="K12" s="17" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="L12" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M12" s="23" t="inlineStr">
+        <is>
+          <t>粤YYH231</t>
+        </is>
+      </c>
+      <c r="N12" s="19" t="n">
+        <v>1593.0</v>
+      </c>
+      <c r="O12" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P12" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q12" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>GX20190811182339627</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>43688.76597222222</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>陈海斌</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>15338406541</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>43689.458333333336</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>43690.458333333336</v>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K13" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L13" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M13" s="23" t="inlineStr">
+        <is>
+          <t>粤EM423K</t>
+        </is>
+      </c>
+      <c r="N13" s="19" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P13" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q13" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>GX20190811173746566</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>43688.73402777778</v>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>袁斯波</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>13825578922</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>43689.38958333333</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>43691.38958333333</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J14" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L14" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M14" s="23" t="inlineStr">
+        <is>
+          <t>粤EY210L</t>
+        </is>
+      </c>
+      <c r="N14" s="19" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="O14" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P14" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q14" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>GX20190810111357454</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>43687.467361111114</v>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>18688274082</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>18688274082</t>
+        </is>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>43687.48055555556</v>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>43691.48055555556</v>
+      </c>
+      <c r="I15" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J15" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L15" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M15" s="23" t="inlineStr">
+        <is>
+          <t>粤EW253K</t>
+        </is>
+      </c>
+      <c r="N15" s="19" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="O15" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P15" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q15" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809094151501</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>43686.40347222222</v>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>13378637953</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>13378637953</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>43686.458333333336</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>43687.458333333336</v>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J16" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L16" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M16" s="23" t="inlineStr">
+        <is>
+          <t>粤EV265M</t>
+        </is>
+      </c>
+      <c r="N16" s="19" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="O16" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P16" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q16" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>GX20190809084254412</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>43686.3625</v>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>18064638451</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>18064638451</t>
+        </is>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>43686.38888888889</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>43688.38888888889</v>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K17" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L17" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M17" s="23" t="inlineStr">
+        <is>
+          <t>粤EM423K</t>
+        </is>
+      </c>
+      <c r="N17" s="19" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="O17" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P17" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q17" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>GX20190808121154857</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>43685.50763888889</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>黎志生</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>13424694010</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>43685.729166666664</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>43686.729166666664</v>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J18" s="16" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="K18" s="17" t="inlineStr">
+        <is>
+          <t>友宏桂城店</t>
+        </is>
+      </c>
+      <c r="L18" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M18" s="23" t="inlineStr">
+        <is>
+          <t>粤YYH231</t>
+        </is>
+      </c>
+      <c r="N18" s="19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O18" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P18" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q18" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807113117845</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>43684.47986111111</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>余宗明</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>18027638095</t>
+        </is>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>43685.729166666664</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>43687.729166666664</v>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J19" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K19" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L19" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M19" s="23" t="inlineStr">
+        <is>
+          <t>粤EY210L</t>
+        </is>
+      </c>
+      <c r="N19" s="19" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P19" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q19" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>GX20190807101902981</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>43684.42986111111</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>13790089808</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>13790089808</t>
+        </is>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>43684.479166666664</v>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>43690.479166666664</v>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J20" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L20" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞</t>
+        </is>
+      </c>
+      <c r="M20" s="23" t="inlineStr">
+        <is>
+          <t>粤EY050T</t>
+        </is>
+      </c>
+      <c r="N20" s="19" t="n">
+        <v>1498.0</v>
+      </c>
+      <c r="O20" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P20" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q20" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>GX20190804162406174</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>43681.683333333334</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>黄建阳</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>13106707078</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>43681.729166666664</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>43684.729166666664</v>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J21" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L21" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M21" s="23" t="inlineStr">
+        <is>
+          <t>粤E850DX</t>
+        </is>
+      </c>
+      <c r="N21" s="19" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="O21" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P21" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q21" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803155108871</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>43680.660416666666</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>谢泽伟</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>13827743988</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>43680.6875</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>43683.6875</v>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J22" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L22" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M22" s="23" t="inlineStr">
+        <is>
+          <t>粤EM423K</t>
+        </is>
+      </c>
+      <c r="N22" s="19" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="O22" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P22" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q22" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802180945399</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>43679.75625</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>刘修宏</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>18138519201</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>43680.458333333336</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>43681.458333333336</v>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J23" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L23" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M23" s="23" t="inlineStr">
+        <is>
+          <t>粤E850DX</t>
+        </is>
+      </c>
+      <c r="N23" s="19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P23" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q23" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802175131572</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>43679.74375</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>刘修宏</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>18138519201</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>43680.458333333336</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>43681.458333333336</v>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K24" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L24" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N24" s="19" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="O24" s="20" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P24" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q24" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802174426542</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>43679.73888888889</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>13760884750</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>13760884750</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>43679.729166666664</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>43680.729166666664</v>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K25" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L25" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M25" s="23" t="inlineStr">
+        <is>
+          <t>粤EM423K</t>
+        </is>
+      </c>
+      <c r="N25" s="19" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="O25" s="20" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P25" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q25" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>GX20190801165645166</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>43678.705555555556</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>罗传杰</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>15024259060</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>43678.729166666664</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>43679.729166666664</v>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="J26" s="16" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="K26" s="17" t="inlineStr">
+        <is>
+          <t>溢丰车城店</t>
+        </is>
+      </c>
+      <c r="L26" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M26" s="23" t="inlineStr">
+        <is>
+          <t>粤E850DX</t>
+        </is>
+      </c>
+      <c r="N26" s="19" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="O26" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P26" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q26" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:Q1"/>
